--- a/LifetimeSRH_X.xlsx
+++ b/LifetimeSRH_X.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,2074 +393,2162 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>817.1056604823978</v>
+        <v>-159685.806693568</v>
       </c>
       <c r="B2">
-        <v>1.931140204748536E-05</v>
+        <v>2.060774928346062E-07</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>816.9589090240484</v>
+        <v>-159635.300281435</v>
       </c>
       <c r="B3">
-        <v>0.0001076872923827471</v>
+        <v>3.697347489782893E-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>816.847094946187</v>
+        <v>-158461.7896066306</v>
       </c>
       <c r="B4">
-        <v>0.0001750284718699987</v>
+        <v>4.171990234506027E-06</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>816.8174255893118</v>
+        <v>-153790.5064340362</v>
       </c>
       <c r="B5">
-        <v>0.0001928978875629887</v>
+        <v>1.930152454004638E-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>816.7994624461606</v>
+        <v>-151054.4713122316</v>
       </c>
       <c r="B6">
-        <v>0.0002037169744241634</v>
+        <v>2.815883428513552E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>816.7950981479104</v>
+        <v>-149792.2320579267</v>
       </c>
       <c r="B7">
-        <v>0.0002063455806868242</v>
+        <v>3.224399235899841E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>816.6184988651817</v>
+        <v>-143988.7339560137</v>
       </c>
       <c r="B8">
-        <v>0.0003127165395325698</v>
+        <v>5.101802784079721E-05</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>816.2942444988275</v>
+        <v>-143563.8109838332</v>
       </c>
       <c r="B9">
-        <v>0.0005080531941351339</v>
+        <v>5.239207770017651E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>816.1568077826961</v>
+        <v>-134204.8148315672</v>
       </c>
       <c r="B10">
-        <v>0.0005908587605538962</v>
+        <v>8.263665714236267E-05</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>816.1317033154265</v>
+        <v>-131512.3799479539</v>
       </c>
       <c r="B11">
-        <v>0.0006059849142171825</v>
+        <v>9.133082548505503E-05</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>816.0321192356699</v>
+        <v>-125209.2922908253</v>
       </c>
       <c r="B12">
-        <v>0.0006659893458576824</v>
+        <v>0.0001116725942907596</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>815.7432498098276</v>
+        <v>-115157.453116499</v>
       </c>
       <c r="B13">
-        <v>0.000840067632391002</v>
+        <v>0.0001440795595025765</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>815.6763685535566</v>
+        <v>-104252.600473491</v>
       </c>
       <c r="B14">
-        <v>0.0008803757871634419</v>
+        <v>0.0001791920232281813</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>815.5348598648666</v>
+        <v>-79511.82773398484</v>
       </c>
       <c r="B15">
-        <v>0.0009656658157392051</v>
+        <v>0.0002586926900902598</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>815.2173473936087</v>
+        <v>-56973.621041088</v>
       </c>
       <c r="B16">
-        <v>0.00115706263368483</v>
+        <v>0.0003309374054508625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>815.1682786200818</v>
+        <v>-38174.52240893271</v>
       </c>
       <c r="B17">
-        <v>0.001186644536271239</v>
+        <v>0.000391082231688032</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>815.1553224715911</v>
+        <v>-19710.12807104973</v>
       </c>
       <c r="B18">
-        <v>0.001194455502672192</v>
+        <v>0.0004500684133707754</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>815.0313967594791</v>
+        <v>-1879.663549290603</v>
       </c>
       <c r="B19">
-        <v>0.001269170508288504</v>
+        <v>0.0005069591278756771</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>814.9428842295664</v>
+        <v>12747.20451015451</v>
       </c>
       <c r="B20">
-        <v>0.001322538200605061</v>
+        <v>0.000553585186489903</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>814.6563422281116</v>
+        <v>31159.8771470841</v>
       </c>
       <c r="B21">
-        <v>0.001495324827893339</v>
+        <v>0.0006122348025261285</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>814.408737035224</v>
+        <v>47528.50069094286</v>
       </c>
       <c r="B22">
-        <v>0.001644655926120194</v>
+        <v>0.0006643415074635568</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>814.1705931665375</v>
+        <v>59736.22775105705</v>
       </c>
       <c r="B23">
-        <v>0.001788301566236893</v>
+        <v>0.0007031884595137243</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>814.1111748620038</v>
+        <v>72471.52125204379</v>
       </c>
       <c r="B24">
-        <v>0.001824145167950231</v>
+        <v>0.0007437053152895478</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>814.0577294314617</v>
+        <v>86641.428243644</v>
       </c>
       <c r="B25">
-        <v>0.001856386763067996</v>
+        <v>0.0007887799878906808</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>813.7049688715103</v>
+        <v>95115.26755444056</v>
       </c>
       <c r="B26">
-        <v>0.002069219477458223</v>
+        <v>0.0008157340198105924</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>813.58971014572</v>
+        <v>95591.75557675568</v>
       </c>
       <c r="B27">
-        <v>0.002138768755873044</v>
+        <v>0.0008172496521079127</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>813.1729459753087</v>
+        <v>97107.20284831019</v>
       </c>
       <c r="B28">
-        <v>0.002390291937716991</v>
+        <v>0.0008220700511388941</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>812.6420783524688</v>
+        <v>99942.29760112759</v>
       </c>
       <c r="B29">
-        <v>0.002710768813235323</v>
+        <v>0.0008310880667653938</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>812.3279551908471</v>
+        <v>101303.753767541</v>
       </c>
       <c r="B30">
-        <v>0.002900448211739062</v>
+        <v>0.0008354186752256188</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>812.250322601213</v>
+        <v>105180.9358626666</v>
       </c>
       <c r="B31">
-        <v>0.002947331194745713</v>
+        <v>0.0008477515643397756</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>812.1015339554112</v>
+        <v>112374.2372812386</v>
       </c>
       <c r="B32">
-        <v>0.003037192026526986</v>
+        <v>0.0008706332015872562</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>811.9211132916234</v>
+        <v>114642.8563902113</v>
       </c>
       <c r="B33">
-        <v>0.003146167762678129</v>
+        <v>0.0008778497868014633</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>811.914919044646</v>
+        <v>123104.6632775165</v>
       </c>
       <c r="B34">
-        <v>0.003149909354259489</v>
+        <v>0.0009047681977706326</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>811.8342366138795</v>
+        <v>128512.2373376084</v>
       </c>
       <c r="B35">
-        <v>0.003198646283963625</v>
+        <v>0.0009219715360032231</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>811.7794553869851</v>
+        <v>131117.2604727591</v>
       </c>
       <c r="B36">
-        <v>0.003231738710824565</v>
+        <v>0.0009302592949695733</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>811.6943734864943</v>
+        <v>134776.7208412689</v>
       </c>
       <c r="B37">
-        <v>0.003283137429980725</v>
+        <v>0.0009419020306204205</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>811.4069047475949</v>
+        <v>137340.8800935815</v>
       </c>
       <c r="B38">
-        <v>0.003456819260092633</v>
+        <v>0.0009500602534679268</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>811.3232350699977</v>
+        <v>139112.6140245408</v>
       </c>
       <c r="B39">
-        <v>0.003507376150754912</v>
+        <v>0.0009556973811861093</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>810.9675586722067</v>
+        <v>149899.9977659924</v>
       </c>
       <c r="B40">
-        <v>0.003722319883425241</v>
+        <v>0.0009900215665744547</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>810.6566108254744</v>
+        <v>152453.8526097106</v>
       </c>
       <c r="B41">
-        <v>0.003910270869995069</v>
+        <v>0.0009981480970065965</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>809.6972426640054</v>
+        <v>155853.0588738102</v>
       </c>
       <c r="B42">
-        <v>0.004490379263929907</v>
+        <v>0.00100896483965461</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>809.1921071375957</v>
+        <v>156999.7929975349</v>
       </c>
       <c r="B43">
-        <v>0.00479595898699533</v>
+        <v>0.001012613965696281</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>808.8859514290272</v>
+        <v>160180.6695511266</v>
       </c>
       <c r="B44">
-        <v>0.00498121232592711</v>
+        <v>0.001022736263499475</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>808.1667833866924</v>
+        <v>161361.7936224371</v>
       </c>
       <c r="B45">
-        <v>0.005416513315235151</v>
+        <v>0.00102649492741573</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>807.9380096912306</v>
+        <v>161767.369144629</v>
       </c>
       <c r="B46">
-        <v>0.005555026432962272</v>
+        <v>0.001027785586648434</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>807.2916649162217</v>
+        <v>164716.3431602061</v>
       </c>
       <c r="B47">
-        <v>0.005946466410331374</v>
+        <v>0.001037170155956677</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>807.2080005340789</v>
+        <v>165183.7253488789</v>
       </c>
       <c r="B48">
-        <v>0.005997146632359692</v>
+        <v>0.001038657525104487</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>807.1383774199248</v>
+        <v>166220.0352528397</v>
       </c>
       <c r="B49">
-        <v>0.006039323247826417</v>
+        <v>0.001041955424911154</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>806.8152238874844</v>
+        <v>166601.9851635801</v>
       </c>
       <c r="B50">
-        <v>0.006235108260392341</v>
+        <v>0.001043170925737366</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>805.9823531907114</v>
+        <v>167448.5270108292</v>
       </c>
       <c r="B51">
-        <v>0.006739888257325402</v>
+        <v>0.001045864928730223</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>805.2085893340204</v>
+        <v>168282.5625811619</v>
       </c>
       <c r="B52">
-        <v>0.007209076895886819</v>
+        <v>0.001048519138070109</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>804.4668654987498</v>
+        <v>168856.9763151999</v>
       </c>
       <c r="B53">
-        <v>0.007659047446460855</v>
+        <v>0.001050347137655638</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>804.0257063960593</v>
+        <v>169442.1764455201</v>
       </c>
       <c r="B54">
-        <v>0.007926776605662387</v>
+        <v>0.001052209465577367</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>803.5353476903024</v>
+        <v>169478.0782389114</v>
       </c>
       <c r="B55">
-        <v>0.008224449565526246</v>
+        <v>0.001052323718705598</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>802.8345237705137</v>
+        <v>172240.0177574608</v>
       </c>
       <c r="B56">
-        <v>0.008650042690345363</v>
+        <v>0.001061113269038945</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>801.9694021420679</v>
+        <v>172717.1588339522</v>
       </c>
       <c r="B57">
-        <v>0.009175665127183191</v>
+        <v>0.001062631715273474</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>801.1644602731667</v>
+        <v>175164.6277963659</v>
       </c>
       <c r="B58">
-        <v>0.009664978191560841</v>
+        <v>0.001070420489228296</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>800.0787041951569</v>
+        <v>175808.0774538934</v>
       </c>
       <c r="B59">
-        <v>0.01032538339847492</v>
+        <v>0.001072468183778398</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>799.5915044587199</v>
+        <v>177663.4630706642</v>
       </c>
       <c r="B60">
-        <v>0.01062186551340715</v>
+        <v>0.001078372683202832</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>798.7607840384318</v>
+        <v>180072.0095412594</v>
       </c>
       <c r="B61">
-        <v>0.01112760318088868</v>
+        <v>0.001086037466780798</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>797.7497790746153</v>
+        <v>180974.8449879717</v>
       </c>
       <c r="B62">
-        <v>0.01174345216021746</v>
+        <v>0.001088910557840626</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>796.7852311634007</v>
+        <v>183552.0003116473</v>
       </c>
       <c r="B63">
-        <v>0.01233136644111477</v>
+        <v>0.001097111729785336</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>795.7662201420987</v>
+        <v>185199.4256021362</v>
       </c>
       <c r="B64">
-        <v>0.01295286479617681</v>
+        <v>0.001102354165673659</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>794.2733040559696</v>
+        <v>186412.7616848309</v>
       </c>
       <c r="B65">
-        <v>0.01386412052073054</v>
+        <v>0.001106215187013712</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>793.1763583182377</v>
+        <v>190429.851353409</v>
       </c>
       <c r="B66">
-        <v>0.01453422884510581</v>
+        <v>0.001118997775854061</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>791.820984788842</v>
+        <v>196583.7799713935</v>
       </c>
       <c r="B67">
-        <v>0.01536284887019616</v>
+        <v>0.001138578345086316</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>790.7871142706445</v>
+        <v>205376.8019552404</v>
       </c>
       <c r="B68">
-        <v>0.01599539282004483</v>
+        <v>0.001166551436080146</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>790.0400532135353</v>
+        <v>216191.6706810315</v>
       </c>
       <c r="B69">
-        <v>0.01645271829705132</v>
+        <v>0.001200946146825141</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>788.4966236958927</v>
+        <v>219925.1945332008</v>
       </c>
       <c r="B70">
-        <v>0.01739823932152038</v>
+        <v>0.001212816464832998</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>787.1297228182684</v>
+        <v>223205.2260134718</v>
       </c>
       <c r="B71">
-        <v>0.01823639027959479</v>
+        <v>0.001223243204520675</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>786.0101122675439</v>
+        <v>223470.1776093013</v>
       </c>
       <c r="B72">
-        <v>0.01892345094093489</v>
+        <v>0.001224085370413802</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>784.8677889241188</v>
+        <v>225559.5992967743</v>
       </c>
       <c r="B73">
-        <v>0.01962495384001147</v>
+        <v>0.001230726312377157</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>782.8495361348876</v>
+        <v>226608.0234210221</v>
       </c>
       <c r="B74">
-        <v>0.02086561506630453</v>
+        <v>0.001234058295614811</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>781.2559165836032</v>
+        <v>226677.3875103246</v>
       </c>
       <c r="B75">
-        <v>0.02184637532452788</v>
+        <v>0.001234278733713513</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>779.4281453413118</v>
+        <v>232345.3464978424</v>
       </c>
       <c r="B76">
-        <v>0.02297247022931526</v>
+        <v>0.001252288310702124</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>777.6261156818534</v>
+        <v>234465.3037359231</v>
       </c>
       <c r="B77">
-        <v>0.02408399607686781</v>
+        <v>0.001259022653460886</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>775.712909094424</v>
+        <v>242768.0273571575</v>
       </c>
       <c r="B78">
-        <v>0.02526550330138406</v>
+        <v>0.001285387423905701</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>774.6164996441272</v>
+        <v>243758.5335993173</v>
       </c>
       <c r="B79">
-        <v>0.02594324826541288</v>
+        <v>0.001288531557313625</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>772.8657961101777</v>
+        <v>247000.8377993046</v>
       </c>
       <c r="B80">
-        <v>0.02702643422132462</v>
+        <v>0.001298821622963265</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>770.9080036087381</v>
+        <v>262590.7912448307</v>
       </c>
       <c r="B81">
-        <v>0.02823919428460926</v>
+        <v>0.001348253404431746</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>768.8519949361786</v>
+        <v>273417.3852118463</v>
       </c>
       <c r="B82">
-        <v>0.02951444300076938</v>
+        <v>0.001382528260495291</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>766.9127715571478</v>
+        <v>279048.9418827906</v>
       </c>
       <c r="B83">
-        <v>0.03071880862086538</v>
+        <v>0.001400335981306541</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>764.512857756285</v>
+        <v>279158.5434867832</v>
       </c>
       <c r="B84">
-        <v>0.03221138598837515</v>
+        <v>0.001400682403146575</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>761.7138204503004</v>
+        <v>280467.8907953836</v>
       </c>
       <c r="B85">
-        <v>0.03395513556581832</v>
+        <v>0.001404820438212692</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>758.9681079072845</v>
+        <v>285629.5987726368</v>
       </c>
       <c r="B86">
-        <v>0.03566876124342829</v>
+        <v>0.001421124716393546</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>756.0889592823565</v>
+        <v>290503.7984400661</v>
       </c>
       <c r="B87">
-        <v>0.03746897311850346</v>
+        <v>0.001436507414077918</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>753.0571905541442</v>
+        <v>292180.4810572051</v>
       </c>
       <c r="B88">
-        <v>0.03936828379073024</v>
+        <v>0.00144179574453979</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>750.5484425089169</v>
+        <v>292413.1969715313</v>
       </c>
       <c r="B89">
-        <v>0.04094279259305619</v>
+        <v>0.00144252960784752</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>747.7935428045023</v>
+        <v>293531.2927115434</v>
       </c>
       <c r="B90">
-        <v>0.04267477232464136</v>
+        <v>0.001446055034505843</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>745.2082024140798</v>
+        <v>297110.585868987</v>
       </c>
       <c r="B91">
-        <v>0.04430299953822643</v>
+        <v>0.001457335563399256</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>742.9114497047336</v>
+        <v>298945.8291819563</v>
       </c>
       <c r="B92">
-        <v>0.04575179552028753</v>
+        <v>0.001463116363809883</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>739.9258320798883</v>
+        <v>300041.5283346341</v>
       </c>
       <c r="B93">
-        <v>0.04763840201016209</v>
+        <v>0.001466566634896929</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>736.2390634166104</v>
+        <v>300886.3090472278</v>
       </c>
       <c r="B94">
-        <v>0.04997319378552585</v>
+        <v>0.001469226237719825</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>733.1237447040602</v>
+        <v>304655.9393877572</v>
       </c>
       <c r="B95">
-        <v>0.05195053221978922</v>
+        <v>0.001481088146640762</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>729.7074028424275</v>
+        <v>308027.0363883103</v>
       </c>
       <c r="B96">
-        <v>0.05412363271361876</v>
+        <v>0.001491687519013923</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>725.2691457539095</v>
+        <v>310172.0840640797</v>
       </c>
       <c r="B97">
-        <v>0.05695414116842591</v>
+        <v>0.001498427641905391</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>721.4621958147869</v>
+        <v>329072.3093299589</v>
       </c>
       <c r="B98">
-        <v>0.05938870552457124</v>
+        <v>0.001557656972927336</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>717.9474056196101</v>
+        <v>338414.3033368327</v>
       </c>
       <c r="B99">
-        <v>0.06164192249540745</v>
+        <v>0.00158681664496994</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>714.1200233192802</v>
+        <v>342428.4485261622</v>
       </c>
       <c r="B100">
-        <v>0.064101546205715</v>
+        <v>0.001599320298415017</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>709.7809122144898</v>
+        <v>345796.5056968553</v>
       </c>
       <c r="B101">
-        <v>0.06689763672972338</v>
+        <v>0.001609798910424264</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>705.5709249742098</v>
+        <v>352967.4032883118</v>
       </c>
       <c r="B102">
-        <v>0.06961827582986099</v>
+        <v>0.001632069400209217</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>702.1137955302395</v>
+        <v>354883.2492126234</v>
       </c>
       <c r="B103">
-        <v>0.07185811908649715</v>
+        <v>0.001638010077195327</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>698.0225338810088</v>
+        <v>357844.2693298245</v>
       </c>
       <c r="B104">
-        <v>0.07451550432675184</v>
+        <v>0.001647183731413337</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>693.9269702606923</v>
+        <v>368563.7170715216</v>
       </c>
       <c r="B105">
-        <v>0.07718297992295453</v>
+        <v>0.001680311716713331</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>689.9565661423516</v>
+        <v>373046.3820596895</v>
       </c>
       <c r="B106">
-        <v>0.07977594076366278</v>
+        <v>0.001694126005918854</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>686.7438709033523</v>
+        <v>377317.5718386231</v>
       </c>
       <c r="B107">
-        <v>0.08187913642909733</v>
+        <v>0.001707266682315726</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>681.6863274761668</v>
+        <v>391268.1111833472</v>
       </c>
       <c r="B108">
-        <v>0.08519932983944535</v>
+        <v>0.001750036551251902</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>677.2577837357285</v>
+        <v>401704.5392018287</v>
       </c>
       <c r="B109">
-        <v>0.08811598644505202</v>
+        <v>0.001781883962032935</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>672.426992611685</v>
+        <v>405480.3979373478</v>
       </c>
       <c r="B110">
-        <v>0.09130767513270059</v>
+        <v>0.001793375875582426</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>667.6933694406432</v>
+        <v>425594.592967813</v>
       </c>
       <c r="B111">
-        <v>0.09444552106692716</v>
+        <v>0.001854346994659821</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>663.1238392248758</v>
+        <v>431808.0184858955</v>
       </c>
       <c r="B112">
-        <v>0.09748444560689049</v>
+        <v>0.001873108696279036</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>658.0210440245303</v>
+        <v>432209.0621929491</v>
       </c>
       <c r="B113">
-        <v>0.1008896289068571</v>
+        <v>0.001874318691920974</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>653.4220388470743</v>
+        <v>440355.7479131143</v>
       </c>
       <c r="B114">
-        <v>0.1039693043266175</v>
+        <v>0.001898876349742376</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>648.9854687790568</v>
+        <v>446796.8207483149</v>
       </c>
       <c r="B115">
-        <v>0.1069499844320722</v>
+        <v>0.001918268646119766</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>644.0992369947101</v>
+        <v>447444.4495241047</v>
       </c>
       <c r="B116">
-        <v>0.110244119110679</v>
+        <v>0.001920217602950775</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>638.2227079750326</v>
+        <v>448327.6465923894</v>
       </c>
       <c r="B117">
-        <v>0.1142220685871672</v>
+        <v>0.001922875262320679</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>632.205624207919</v>
+        <v>454381.3241372847</v>
       </c>
       <c r="B118">
-        <v>0.1183140709813801</v>
+        <v>0.001941086501030351</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>626.0752891285853</v>
+        <v>456226.1810795905</v>
       </c>
       <c r="B119">
-        <v>0.1225034608447867</v>
+        <v>0.001946635186726131</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>620.6169766748567</v>
+        <v>457863.1176901596</v>
       </c>
       <c r="B120">
-        <v>0.1262514949525644</v>
+        <v>0.001951558304288325</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>615.2395559623808</v>
+        <v>458530.3501066615</v>
       </c>
       <c r="B121">
-        <v>0.1299610187451238</v>
+        <v>0.001953564988766882</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>609.8474916454963</v>
+        <v>466805.0645297637</v>
       </c>
       <c r="B122">
-        <v>0.1336981817817906</v>
+        <v>0.001979031734677266</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>605.0812252254123</v>
+        <v>485360.8559489576</v>
       </c>
       <c r="B123">
-        <v>0.137016712101666</v>
+        <v>0.002039711085455234</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>599.6278554942392</v>
+        <v>502821.9211546809</v>
       </c>
       <c r="B124">
-        <v>0.1408316115837807</v>
+        <v>0.00209775730200083</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>593.5985537296865</v>
+        <v>513877.8386357187</v>
       </c>
       <c r="B125">
-        <v>0.1450725242969584</v>
+        <v>0.002135058689964911</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>588.3926663184673</v>
+        <v>520916.4845886985</v>
       </c>
       <c r="B126">
-        <v>0.1487544509218804</v>
+        <v>0.002158291535296153</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>582.8900021139793</v>
+        <v>522907.401127942</v>
       </c>
       <c r="B127">
-        <v>0.152667200127291</v>
+        <v>0.002165083412571927</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>576.7019665294088</v>
+        <v>523891.3177176717</v>
       </c>
       <c r="B128">
-        <v>0.1570935136544554</v>
+        <v>0.002168443771261662</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>570.6765966775946</v>
+        <v>528203.9172979759</v>
       </c>
       <c r="B129">
-        <v>0.1614303117548857</v>
+        <v>0.002183201745716518</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>563.9164707117144</v>
+        <v>530303.460251331</v>
       </c>
       <c r="B130">
-        <v>0.1663267946282106</v>
+        <v>0.002190403347905015</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>558.0705165258296</v>
+        <v>533742.5633388039</v>
       </c>
       <c r="B131">
-        <v>0.1705857691282171</v>
+        <v>0.002201780421127052</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>552.3626235835372</v>
+        <v>538290.5707265951</v>
       </c>
       <c r="B132">
-        <v>0.174763724258146</v>
+        <v>0.002217247133537163</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>546.3672703195874</v>
+        <v>540335.6405089333</v>
       </c>
       <c r="B133">
-        <v>0.1791697739890504</v>
+        <v>0.002224311189652644</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>539.7480106917753</v>
+        <v>553199.4536571844</v>
       </c>
       <c r="B134">
-        <v>0.1840530434548661</v>
+        <v>0.002267972903791216</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>533.0569547782092</v>
+        <v>556150.0743894614</v>
       </c>
       <c r="B135">
-        <v>0.1890158490250199</v>
+        <v>0.002278298135830572</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>526.5050156332516</v>
+        <v>567833.9594922067</v>
       </c>
       <c r="B136">
-        <v>0.1939365544040804</v>
+        <v>0.002317330867985194</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>520.1580971537103</v>
+        <v>569047.6499003223</v>
       </c>
       <c r="B137">
-        <v>0.1988594202851585</v>
+        <v>0.002321633874275995</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>514.4766456333426</v>
+        <v>576182.422017819</v>
       </c>
       <c r="B138">
-        <v>0.203573762416191</v>
+        <v>0.002347082628321322</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>511.2912056278803</v>
+        <v>576655.2489863639</v>
       </c>
       <c r="B139">
-        <v>0.2085995627936403</v>
+        <v>0.002348778880710501</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>508.7166423460146</v>
+        <v>578081.5945434093</v>
       </c>
       <c r="B140">
-        <v>0.2134186219517875</v>
+        <v>0.002353903435786057</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>506.0948703119304</v>
+        <v>587058.4408505299</v>
       </c>
       <c r="B141">
-        <v>0.2185485386176318</v>
+        <v>0.002386418903639707</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>503.5333895045456</v>
+        <v>593052.7506711042</v>
       </c>
       <c r="B142">
-        <v>0.2237819486090953</v>
+        <v>0.002407016330338605</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>501.0132085959069</v>
+        <v>600568.7110694667</v>
       </c>
       <c r="B143">
-        <v>0.2289800536980727</v>
+        <v>0.002434772428181991</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>498.6026280918609</v>
+        <v>617270.9041588787</v>
       </c>
       <c r="B144">
-        <v>0.2342820791268063</v>
+        <v>0.002495098930850273</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>496.1869451505309</v>
+        <v>634836.1720472364</v>
       </c>
       <c r="B145">
-        <v>0.2398388734694024</v>
+        <v>0.002559509362157023</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>494.0163547178676</v>
+        <v>649960.7427083615</v>
       </c>
       <c r="B146">
-        <v>0.2449960777958413</v>
+        <v>0.002610850232669037</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>491.9600761786937</v>
+        <v>654944.249486818</v>
       </c>
       <c r="B147">
-        <v>0.250124381313435</v>
+        <v>0.002627679956791979</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>489.6836356651693</v>
+        <v>671769.5298880612</v>
       </c>
       <c r="B148">
-        <v>0.2560307200044312</v>
+        <v>0.00268777482481814</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>487.6490588405487</v>
+        <v>684479.4208532643</v>
       </c>
       <c r="B149">
-        <v>0.2617095496871861</v>
+        <v>0.002739545150476749</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>485.7415152411476</v>
+        <v>693847.7366792142</v>
       </c>
       <c r="B150">
-        <v>0.2672268937176689</v>
+        <v>0.002773128206350055</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>484.0293274064005</v>
+        <v>695150.4027274101</v>
       </c>
       <c r="B151">
-        <v>0.2723876228239658</v>
+        <v>0.002778222765264691</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>482.2648050953578</v>
+        <v>696687.8988860185</v>
       </c>
       <c r="B152">
-        <v>0.2778930542720322</v>
+        <v>0.002784653270517998</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>480.5889430319007</v>
+        <v>699470.7816496171</v>
       </c>
       <c r="B153">
-        <v>0.2835600869376178</v>
+        <v>0.002796338560455081</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>478.9832458179093</v>
+        <v>720734.325361109</v>
       </c>
       <c r="B154">
-        <v>0.2891860190083626</v>
+        <v>0.002879545081795593</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>477.3329752482037</v>
+        <v>729158.8222706295</v>
       </c>
       <c r="B155">
-        <v>0.2952445248256295</v>
+        <v>0.002912300462578255</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>475.7006106762316</v>
+        <v>737426.5974292327</v>
       </c>
       <c r="B156">
-        <v>0.3014966423807969</v>
+        <v>0.002943774842051832</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>474.3040584752446</v>
+        <v>737771.4452179489</v>
       </c>
       <c r="B157">
-        <v>0.3075921632703045</v>
+        <v>0.002945304471911046</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>472.9716402410507</v>
+        <v>740881.7079964462</v>
       </c>
       <c r="B158">
-        <v>0.3137146380474892</v>
+        <v>0.002959140414516007</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>471.8480576208206</v>
+        <v>743552.5593328543</v>
       </c>
       <c r="B159">
-        <v>0.3194055789359186</v>
+        <v>0.002971079074422201</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>470.7127826721892</v>
+        <v>751907.360642439</v>
       </c>
       <c r="B160">
-        <v>0.3256074759263276</v>
+        <v>0.003008750889973674</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>469.712312360904</v>
+        <v>761971.2612609377</v>
       </c>
       <c r="B161">
-        <v>0.3314477919789536</v>
+        <v>0.00305467238291709</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>468.7272753654686</v>
+        <v>765472.6068534295</v>
       </c>
       <c r="B162">
-        <v>0.3376239652457552</v>
+        <v>0.003069698389482236</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>467.7803553514264</v>
+        <v>780260.5796636419</v>
       </c>
       <c r="B163">
-        <v>0.3434773018617257</v>
+        <v>0.003132450838480369</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>466.9118217330986</v>
+        <v>791589.4903495531</v>
       </c>
       <c r="B164">
-        <v>0.349946715195551</v>
+        <v>0.003182670556004255</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>466.1179998900716</v>
+        <v>815556.2141100544</v>
       </c>
       <c r="B165">
-        <v>0.3563563569826786</v>
+        <v>0.003292621483114249</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>465.38180227609</v>
+        <v>822195.2812354454</v>
       </c>
       <c r="B166">
-        <v>0.3632102888009681</v>
+        <v>0.003320455339991822</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>464.8417553878438</v>
+        <v>822611.1811544056</v>
       </c>
       <c r="B167">
-        <v>0.3699120050718927</v>
+        <v>0.00332223920144844</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>464.3134788323127</v>
+        <v>832165.6944113455</v>
       </c>
       <c r="B168">
-        <v>0.3763599510408461</v>
+        <v>0.003366188352900239</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>463.8570863912152</v>
+        <v>833191.9077126649</v>
       </c>
       <c r="B169">
-        <v>0.3825511913034392</v>
+        <v>0.003371228999991557</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>463.5449098831822</v>
+        <v>850880.0595508665</v>
       </c>
       <c r="B170">
-        <v>0.3891627244100571</v>
+        <v>0.003459287045577391</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>463.2782339226592</v>
+        <v>854273.0097786735</v>
       </c>
       <c r="B171">
-        <v>0.3954617348293405</v>
+        <v>0.003476024890101884</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>463.0810924944157</v>
+        <v>877713.3256153405</v>
       </c>
       <c r="B172">
-        <v>0.4019620849108901</v>
+        <v>0.003596970701641554</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>463.0539494509455</v>
+        <v>889255.8593482417</v>
       </c>
       <c r="B173">
-        <v>0.4084444737316044</v>
+        <v>0.003658213905972258</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>463.0732982088124</v>
+        <v>889920.3864991139</v>
       </c>
       <c r="B174">
-        <v>0.4149444462032088</v>
+        <v>0.003661877338533658</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>463.1581221442855</v>
+        <v>906176.32414225</v>
       </c>
       <c r="B175">
-        <v>0.4214900022408627</v>
+        <v>0.003750515850874811</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>463.3866271563531</v>
+        <v>915870.9296776224</v>
       </c>
       <c r="B176">
-        <v>0.4281888314219124</v>
+        <v>0.003806816668067892</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>463.8213123272615</v>
+        <v>916314.5524029838</v>
       </c>
       <c r="B177">
-        <v>0.4348639954083421</v>
+        <v>0.003809421457796621</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>464.2868608230573</v>
+        <v>919390.1574092444</v>
       </c>
       <c r="B178">
-        <v>0.4416067383477938</v>
+        <v>0.003826578378078074</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>464.9612363357207</v>
+        <v>929242.6846812561</v>
       </c>
       <c r="B179">
-        <v>0.448248914697193</v>
+        <v>0.003881711148216274</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>465.6525922336266</v>
+        <v>932116.406412597</v>
       </c>
       <c r="B180">
-        <v>0.4549585266835866</v>
+        <v>0.003899053789622021</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>466.5673371521804</v>
+        <v>939191.0662681623</v>
       </c>
       <c r="B181">
-        <v>0.4619738663902654</v>
+        <v>0.003940972013100137</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>467.6865921475621</v>
+        <v>958637.7609150133</v>
       </c>
       <c r="B182">
-        <v>0.4687366920355344</v>
+        <v>0.004060833208063679</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>468.8503211158739</v>
+        <v>974819.6945717712</v>
       </c>
       <c r="B183">
-        <v>0.4754090806166212</v>
+        <v>0.004164104035185308</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>470.0484260690511</v>
+        <v>989840.6260564832</v>
       </c>
       <c r="B184">
-        <v>0.4822761785157627</v>
+        <v>0.004265254670236428</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>471.3940567054734</v>
+        <v>1005618.207977064</v>
       </c>
       <c r="B185">
-        <v>0.4892454634597763</v>
+        <v>0.004373028591062148</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>472.9167918228314</v>
+        <v>1008262.611017485</v>
       </c>
       <c r="B186">
-        <v>0.4960401425733755</v>
+        <v>0.004392582291339191</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>475.0075861220692</v>
+        <v>1016915.145629499</v>
       </c>
       <c r="B187">
-        <v>0.5028790489131242</v>
+        <v>0.004455587968661166</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>477.6679411516091</v>
+        <v>1020311.144236757</v>
       </c>
       <c r="B188">
-        <v>0.5097412112181267</v>
+        <v>0.00448142705821817</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>480.4782769468898</v>
+        <v>1024525.286764552</v>
       </c>
       <c r="B189">
-        <v>0.5166073406305858</v>
+        <v>0.004513755437614078</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>483.4628952568225</v>
+        <v>1026489.466678006</v>
       </c>
       <c r="B190">
-        <v>0.5236179124464297</v>
+        <v>0.004528916603906473</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>486.4598465535164</v>
+        <v>1046723.235164847</v>
       </c>
       <c r="B191">
-        <v>0.5304673387745643</v>
+        <v>0.004685808348766031</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>489.430106951243</v>
+        <v>1062784.356284105</v>
       </c>
       <c r="B192">
-        <v>0.5371328313653378</v>
+        <v>0.004815172975615599</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>492.5409721148599</v>
+        <v>1066704.846425815</v>
       </c>
       <c r="B193">
-        <v>0.5440277877504299</v>
+        <v>0.004847447647544741</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>495.7998343186746</v>
+        <v>1077690.160204908</v>
       </c>
       <c r="B194">
-        <v>0.5511890768692516</v>
+        <v>0.00493758265907281</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>499.0061622428699</v>
+        <v>1078660.049273669</v>
       </c>
       <c r="B195">
-        <v>0.5581947361101808</v>
+        <v>0.004945773952777064</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>502.1435073640096</v>
+        <v>1082037.449324589</v>
       </c>
       <c r="B196">
-        <v>0.5650240365468102</v>
+        <v>0.004974424990894477</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>505.3220637274046</v>
+        <v>1096623.407004804</v>
       </c>
       <c r="B197">
-        <v>0.5719250897891022</v>
+        <v>0.005099740060386683</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>508.5165145141086</v>
+        <v>1107700.173678323</v>
       </c>
       <c r="B198">
-        <v>0.5788471227478634</v>
+        <v>0.005198656629581992</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>511.8679627412421</v>
+        <v>1111459.935866803</v>
       </c>
       <c r="B199">
-        <v>0.5860975331513397</v>
+        <v>0.005232759206838979</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>515.1643575575655</v>
+        <v>1114443.047477767</v>
       </c>
       <c r="B200">
-        <v>0.5932182801845901</v>
+        <v>0.005259788215682225</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>518.2610755168349</v>
+        <v>1140964.385673455</v>
       </c>
       <c r="B201">
-        <v>0.5998984103139827</v>
+        <v>0.005517387124088942</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>521.4327560064091</v>
+        <v>1147959.795702471</v>
       </c>
       <c r="B202">
-        <v>0.6067306551904601</v>
+        <v>0.00558909598318887</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>524.7504917086077</v>
+        <v>1160614.725987668</v>
       </c>
       <c r="B203">
-        <v>0.613866501517868</v>
+        <v>0.005722746251957501</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>527.9656678198953</v>
+        <v>1172773.342960371</v>
       </c>
       <c r="B204">
-        <v>0.6207702102690857</v>
+        <v>0.005854487904337757</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>531.1509405398682</v>
+        <v>1173094.960435188</v>
       </c>
       <c r="B205">
-        <v>0.6275976471763098</v>
+        <v>0.0058580969658409</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>534.3208440321616</v>
+        <v>1186357.525502344</v>
       </c>
       <c r="B206">
-        <v>0.6343793606033463</v>
+        <v>0.006010435322958111</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>537.4794351599234</v>
+        <v>1195939.62643535</v>
       </c>
       <c r="B207">
-        <v>0.6411233336282769</v>
+        <v>0.006123789056345523</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>540.6397518322774</v>
+        <v>1202111.776858286</v>
       </c>
       <c r="B208">
-        <v>0.6478566165123406</v>
+        <v>0.006200180837776257</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>543.829543191998</v>
+        <v>1213076.43709242</v>
       </c>
       <c r="B209">
-        <v>0.6546372667979471</v>
+        <v>0.006339496626054632</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>547.0400632109188</v>
+        <v>1217054.953214847</v>
       </c>
       <c r="B210">
-        <v>0.6614454771174003</v>
+        <v>0.006390013461440055</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>550.2827153311659</v>
+        <v>1227951.602785271</v>
       </c>
       <c r="B211">
-        <v>0.6683041683539879</v>
+        <v>0.006533593171572379</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>553.3671267438822</v>
+        <v>1244200.813346602</v>
       </c>
       <c r="B212">
-        <v>0.6748109219596106</v>
+        <v>0.006757874549101608</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>556.5943248699414</v>
+        <v>1250066.79346571</v>
       </c>
       <c r="B213">
-        <v>0.6816001124081902</v>
+        <v>0.006842927908444709</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>559.8551422323796</v>
+        <v>1258583.248154638</v>
       </c>
       <c r="B214">
-        <v>0.6884397076003782</v>
+        <v>0.006968196726063767</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>562.9996680653112</v>
+        <v>1267909.026945208</v>
       </c>
       <c r="B215">
-        <v>0.6950152673291252</v>
+        <v>0.007110304909225404</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>566.1745836615836</v>
+        <v>1278004.87523685</v>
       </c>
       <c r="B216">
-        <v>0.7016335911586348</v>
+        <v>0.007266931842373837</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>569.3742480562698</v>
+        <v>1278872.874181533</v>
       </c>
       <c r="B217">
-        <v>0.7082816237725148</v>
+        <v>0.00728090877098756</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>572.6189822676337</v>
+        <v>1285827.871894649</v>
       </c>
       <c r="B218">
-        <v>0.7150000943325603</v>
+        <v>0.007388950106242941</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>575.7731611648175</v>
+        <v>1296914.491112455</v>
       </c>
       <c r="B219">
-        <v>0.7215079334118665</v>
+        <v>0.007567207161575023</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>578.9150490298781</v>
+        <v>1305233.051091659</v>
       </c>
       <c r="B220">
-        <v>0.7279670404431814</v>
+        <v>0.007701878426843679</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>582.0970950509133</v>
+        <v>1315668.125319604</v>
       </c>
       <c r="B221">
-        <v>0.7344842240822127</v>
+        <v>0.007888367394742709</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>585.3114985576277</v>
+        <v>1324816.928149627</v>
       </c>
       <c r="B222">
-        <v>0.7410419517541381</v>
+        <v>0.00805057467396917</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>588.4746116924083</v>
+        <v>1333902.474722902</v>
       </c>
       <c r="B223">
-        <v>0.7474691124381585</v>
+        <v>0.008222310324221566</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>591.6686846947538</v>
+        <v>1346420.228090742</v>
       </c>
       <c r="B224">
-        <v>0.7539324065601657</v>
+        <v>0.008467525134209699</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>594.8633395964305</v>
+        <v>1351935.990616228</v>
       </c>
       <c r="B225">
-        <v>0.7603693086100878</v>
+        <v>0.008579903526751732</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>597.9853020898321</v>
+        <v>1363142.861628531</v>
       </c>
       <c r="B226">
-        <v>0.7666324934194554</v>
+        <v>0.008813858646023806</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>601.1242199225293</v>
+        <v>1372809.784190301</v>
       </c>
       <c r="B227">
-        <v>0.7729019518134544</v>
+        <v>0.009025174562392975</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>604.298346275329</v>
+        <v>1378267.881336025</v>
       </c>
       <c r="B228">
-        <v>0.7792128706672854</v>
+        <v>0.009142951031870518</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>607.4119362229937</v>
+        <v>1388251.528514502</v>
       </c>
       <c r="B229">
-        <v>0.7853746917792767</v>
+        <v>0.009372917063031724</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>610.588165376558</v>
+        <v>1391960.058852638</v>
       </c>
       <c r="B230">
-        <v>0.7916306263419794</v>
+        <v>0.00946132355229868</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>613.7153195642413</v>
+        <v>1402048.178911534</v>
       </c>
       <c r="B231">
-        <v>0.7977599630265011</v>
+        <v>0.009700188369585194</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>616.8380683276014</v>
+        <v>1413981.974703484</v>
       </c>
       <c r="B232">
-        <v>0.8038505693036725</v>
+        <v>0.01000766899707513</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>619.981651560451</v>
+        <v>1423997.326215927</v>
       </c>
       <c r="B233">
-        <v>0.8099510113610574</v>
+        <v>0.0102683943159105</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>623.1270341155631</v>
+        <v>1427986.456032908</v>
       </c>
       <c r="B234">
-        <v>0.8160236244378221</v>
+        <v>0.01038194313835941</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>626.2625045930071</v>
+        <v>1436018.349585072</v>
       </c>
       <c r="B235">
-        <v>0.8220455659150513</v>
+        <v>0.01060481960646648</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>629.3713354136847</v>
+        <v>1443965.625574484</v>
       </c>
       <c r="B236">
-        <v>0.8279849504354507</v>
+        <v>0.01083889748280083</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>632.4839119036297</v>
+        <v>1451069.852558837</v>
       </c>
       <c r="B237">
-        <v>0.8338999073605042</v>
+        <v>0.01106164240528756</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>635.5929366082468</v>
+        <v>1459896.826901551</v>
       </c>
       <c r="B238">
-        <v>0.8397763384601189</v>
+        <v>0.01134904367113766</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>638.689836824528</v>
+        <v>1469489.101737062</v>
       </c>
       <c r="B239">
-        <v>0.8455980952159987</v>
+        <v>0.01167098647435237</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>641.8030640841868</v>
+        <v>1473518.576785708</v>
       </c>
       <c r="B240">
-        <v>0.8514184547649375</v>
+        <v>0.01180815578070572</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>644.8629486336829</v>
+        <v>1482391.390805707</v>
       </c>
       <c r="B241">
-        <v>0.8571076395317152</v>
+        <v>0.01213119684208423</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>647.9400775369164</v>
+        <v>1489351.213783721</v>
       </c>
       <c r="B242">
-        <v>0.862797395273265</v>
+        <v>0.01239612035543142</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>651.0213027745174</v>
+        <v>1495339.141674606</v>
       </c>
       <c r="B243">
-        <v>0.8684630762057141</v>
+        <v>0.012631286108032</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>654.0752362206647</v>
+        <v>1502724.645428976</v>
       </c>
       <c r="B244">
-        <v>0.874047364051054</v>
+        <v>0.01292916255874657</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>657.1392794767561</v>
+        <v>1512298.946829159</v>
       </c>
       <c r="B245">
-        <v>0.8796190031638842</v>
+        <v>0.01332638050763155</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>660.1685131279996</v>
+        <v>1517279.547803099</v>
       </c>
       <c r="B246">
-        <v>0.8850968254119461</v>
+        <v>0.0135435789760556</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>663.2109057680148</v>
+        <v>1523898.504962991</v>
       </c>
       <c r="B247">
-        <v>0.8905680888298368</v>
+        <v>0.01383929561216924</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>666.2508044727676</v>
+        <v>1531345.925578111</v>
       </c>
       <c r="B248">
-        <v>0.8960047249584357</v>
+        <v>0.01417717165416853</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>669.2654464638117</v>
+        <v>1542282.706079631</v>
       </c>
       <c r="B249">
-        <v>0.9013667265572306</v>
+        <v>0.01467274136130176</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>672.2838496099558</v>
+        <v>1545859.039250525</v>
       </c>
       <c r="B250">
-        <v>0.9067063648051144</v>
+        <v>0.01483324165115478</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>675.2881104138809</v>
+        <v>1553076.153904176</v>
       </c>
       <c r="B251">
-        <v>0.9119925116423601</v>
+        <v>0.01515409020621337</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>678.2603536239785</v>
+        <v>1565508.952975339</v>
       </c>
       <c r="B252">
-        <v>0.9171948051518288</v>
+        <v>0.01569772410355547</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>681.2597503552604</v>
+        <v>1572809.87408262</v>
       </c>
       <c r="B253">
-        <v>0.9224173702899038</v>
+        <v>0.01601257875982776</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>684.2384296919803</v>
+        <v>1580158.086292334</v>
       </c>
       <c r="B254">
-        <v>0.9275773000265891</v>
+        <v>0.01632707568008156</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>687.2103422642458</v>
+        <v>1592096.821362523</v>
       </c>
       <c r="B255">
-        <v>0.9326996997206808</v>
+        <v>0.01683464675267921</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>690.1773496241824</v>
+        <v>1603799.75455668</v>
       </c>
       <c r="B256">
-        <v>0.9377885323087126</v>
+        <v>0.01733019255775398</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>693.1444393611636</v>
+        <v>1612010.333009059</v>
       </c>
       <c r="B257">
-        <v>0.9428530391956526</v>
+        <v>0.01767772372084491</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>696.1171325747308</v>
+        <v>1618566.962753316</v>
       </c>
       <c r="B258">
-        <v>0.9479032131076542</v>
+        <v>0.01795559330638122</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>699.0768522771059</v>
+        <v>1629362.13152466</v>
       </c>
       <c r="B259">
-        <v>0.9529082148066321</v>
+        <v>0.01841443638560378</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>702.0113208805869</v>
+        <v>1646729.471959557</v>
       </c>
       <c r="B260">
-        <v>0.9578483327790517</v>
+        <v>0.01915820047571876</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>1655428.441423047</v>
+      </c>
+      <c r="B261">
+        <v>0.01953420379217256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>1665171.065939108</v>
+      </c>
+      <c r="B262">
+        <v>0.01995864180450686</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>1676625.55834526</v>
+      </c>
+      <c r="B263">
+        <v>0.0204627088499119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>1693054.043367369</v>
+      </c>
+      <c r="B264">
+        <v>0.02119637213283598</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>1699738.045618975</v>
+      </c>
+      <c r="B265">
+        <v>0.02149880884327427</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>1713024.812091904</v>
+      </c>
+      <c r="B266">
+        <v>0.02210727811105175</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>1727014.484387186</v>
+      </c>
+      <c r="B267">
+        <v>0.02275892625529012</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>1739075.886300021</v>
+      </c>
+      <c r="B268">
+        <v>0.02333020492601596</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>1750729.110369604</v>
+      </c>
+      <c r="B269">
+        <v>0.02389067274373132</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>1762886.676523971</v>
+      </c>
+      <c r="B270">
+        <v>0.02448437324522634</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>1771914.087260153</v>
+      </c>
+      <c r="B271">
+        <v>0.0249310786026178</v>
       </c>
     </row>
   </sheetData>
